--- a/game_template/model/data/floor builder Level 3.xlsx
+++ b/game_template/model/data/floor builder Level 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -4930,7 +4930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -5187,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>6</v>
@@ -5235,11 +5235,11 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>wwww:          :wwww</v>
+        <v>wwww: !        :wwww</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'wwww:          :wwww',</v>
+        <v>'wwww: !        :wwww',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="14" t="s">
         <v>6</v>
@@ -5535,11 +5535,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:   :     :        :</v>
+        <v>:   :     :    !   :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':   :     :        :',</v>
+        <v>':   :     :    !   :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>6</v>
@@ -5586,10 +5586,10 @@
         <v>6</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>6</v>
@@ -5610,11 +5610,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:   :     :       ::</v>
+        <v>:   :\    :   !!  ::</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':   :     :       ::',</v>
+        <v>':   :\    :   !!  ::',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -5634,13 +5634,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>6</v>
@@ -5673,7 +5673,7 @@
         <v>6</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="T10" s="14" t="s">
         <v>23</v>
@@ -5685,11 +5685,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:   :     :        E</v>
+        <v>:   :` !  :       `E</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':   :     :        E',</v>
+        <v>':   :` !  :       `E',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>6</v>
@@ -5760,11 +5760,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:   D     :       ::</v>
+        <v>:   D`    :       ::</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':   D     :       ::',</v>
+        <v>':   D`    :       ::',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>6</v>
@@ -5835,11 +5835,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:   :     :   (:   :</v>
+        <v>:   :`    :   (:   :</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':   :     :   (:   :',</v>
+        <v>':   :`    :   (:   :',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>6</v>
@@ -5910,11 +5910,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:   :     ;    :   :</v>
+        <v>:   :)    ;    :   :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':   :     ;    :   :',</v>
+        <v>':   :)    ;    :   :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -6162,7 +6162,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>6</v>
@@ -6210,11 +6210,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>wwww:          :\  :</v>
+        <v>wwww: !        :\  :</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'wwww:          :\  :',</v>
+        <v>'wwww: !        :\  :',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -17470,7 +17470,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="19" t="b">
-        <f t="shared" ref="D66:D97" si="7">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <f t="shared" ref="D66" si="7">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">

--- a/game_template/model/data/floor builder Level 3.xlsx
+++ b/game_template/model/data/floor builder Level 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Tiles" sheetId="56" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Tiles!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Tiles!$C$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="232">
   <si>
     <t>width</t>
   </si>
@@ -1730,6 +1730,12 @@
   <si>
     <t>START_POSITION</t>
   </si>
+  <si>
+    <t>DOOR_OPEN</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
 </sst>
 </file>
 
@@ -1967,7 +1973,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4912,12 +4946,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4930,7 +4964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -6645,12 +6679,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8378,12 +8412,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10111,12 +10145,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11844,12 +11878,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13577,12 +13611,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15310,12 +15344,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15326,11 +15360,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15375,11 +15409,11 @@
         <v>37</v>
       </c>
       <c r="D2" s="19" t="b">
-        <f t="shared" ref="D2:D33" si="0">SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
+        <f>SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E33" si="1">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <f t="shared" ref="E2:E34" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
         <v>BANG='$'</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -15409,26 +15443,26 @@
         <v>38</v>
       </c>
       <c r="D3" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C3)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>BOMB='q'</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>132</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I65" si="2">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <f t="shared" ref="I3:I66" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
         <v>TILE1</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J65" si="3">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <f t="shared" ref="J3:J66" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
         <v>`</v>
       </c>
       <c r="K3" s="19" t="b">
-        <f t="shared" ref="K3:K65" si="4">SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
+        <f>SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15443,26 +15477,26 @@
         <v>39</v>
       </c>
       <c r="D4" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C4)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>BOMB_LIT='Q'</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>131</v>
       </c>
       <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE2</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="2"/>
-        <v>TILE2</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="3"/>
         <v>¬</v>
       </c>
       <c r="K4" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J4)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15474,26 +15508,26 @@
         <v>40</v>
       </c>
       <c r="D5" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C5)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>BOSS_DOOR='d'</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE3</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="2"/>
-        <v>TILE3</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
         <v>.</v>
       </c>
       <c r="K5" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J5)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15505,26 +15539,26 @@
         <v>9</v>
       </c>
       <c r="D6" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C6)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>BRAZIER='B'</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>130</v>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>TILE4</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="2"/>
-        <v>TILE4</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
         <v>~</v>
       </c>
       <c r="K6" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J6)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15536,26 +15570,26 @@
         <v>17</v>
       </c>
       <c r="D7" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C7)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DECORATION1='z'</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>70</v>
       </c>
       <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>BOMB</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="2"/>
-        <v>BOMB</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
         <v>q</v>
       </c>
       <c r="K7" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J7)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15567,26 +15601,26 @@
         <v>41</v>
       </c>
       <c r="D8" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C8)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DECORATION2='Z'</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>BOMB_LIT</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>BOMB_LIT</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
         <v>Q</v>
       </c>
       <c r="K8" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J8)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15598,122 +15632,119 @@
         <v>7</v>
       </c>
       <c r="D9" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C9)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DOOR='D'</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>72</v>
       </c>
       <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_DOOR</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="2"/>
-        <v>BOSS_DOOR</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="K9" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUMPRODUCT(--(EXACT(J:J,J9)))&gt;1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="D10" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C10)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>DOT1='!'</v>
+        <f t="shared" ref="E10" si="3">B10&amp;"='"&amp;C10&amp;"'"</f>
+        <v>DOOR_OPEN='o'</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSS_DOOR</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>BRAZIER</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
+        <v>d</v>
       </c>
       <c r="K10" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUMPRODUCT(--(EXACT(J:J,J10)))&gt;1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C11)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>DOT1='!'</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>BRAZIER</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="K11" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J11)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D12" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C12)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
         <v>DOT2='£'</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>DECORATION1</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="2"/>
-        <v>DECORATION1</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
         <v>z</v>
       </c>
-      <c r="K11" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>DOWN='-'</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>DECORATION2</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>Z</v>
-      </c>
       <c r="K12" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J12)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15722,159 +15753,159 @@
         <v>221</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C13)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>DOWN='-'</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>DECORATION2</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>Z</v>
+      </c>
+      <c r="K13" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J13)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D14" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C14)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
         <v>EAST='E'</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>DOOR</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="2"/>
-        <v>DOOR</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="K13" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>EMPTY=' '</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>DOT1</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>!</v>
-      </c>
       <c r="K14" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J14)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D15" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C15)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>EXIT_KEY='%'</v>
+        <f t="shared" si="0"/>
+        <v>EMPTY=' '</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>DOT1</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>DOT2</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>£</v>
+        <v>!</v>
       </c>
       <c r="K15" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J15)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C16)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>EXIT_KEY='%'</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>DOT2</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>£</v>
+      </c>
+      <c r="K16" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J16)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D17" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C17)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
         <v>HEART='HP'</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v>DOWN</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="K16" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>KEY='?'</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>EAST</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>E</v>
-      </c>
       <c r="K17" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J17)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15883,66 +15914,66 @@
         <v>224</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D18" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C18)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>MAP='M'</v>
+        <f t="shared" si="0"/>
+        <v>KEY='?'</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>EAST</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="2"/>
-        <v>EMPTY</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v>E</v>
       </c>
       <c r="K18" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J18)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="D19" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C19)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER1='1'</v>
+        <f t="shared" si="0"/>
+        <v>MAP='M'</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>EMPTY</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="2"/>
-        <v>EXIT_KEY</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>%</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J19)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15951,32 +15982,32 @@
         <v>220</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C20)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER2='2'</v>
+        <f t="shared" si="0"/>
+        <v>MONSTER1='1'</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>EXIT_KEY</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v>HEART</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>HP</v>
+        <v>%</v>
       </c>
       <c r="K20" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J20)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15985,66 +16016,66 @@
         <v>220</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C21)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>MONSTER3='3'</v>
+        <f t="shared" si="0"/>
+        <v>MONSTER2='2'</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>HEART</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="2"/>
-        <v>KEY</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>?</v>
+        <v>HP</v>
       </c>
       <c r="K21" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J21)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="D22" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C22)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>NEXT_LEVEL='L'</v>
+        <f t="shared" si="0"/>
+        <v>MONSTER3='3'</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>KEY</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>MAP</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
+        <v>?</v>
       </c>
       <c r="K22" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J22)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16053,546 +16084,546 @@
         <v>221</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C23)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>NEXT_LEVEL='L'</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>MAP</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="K23" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J23)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D24" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C24)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
         <v>NORTH='N'</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER1</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="2"/>
-        <v>MONSTER1</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K23" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>PLAYER='P'</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>MONSTER2</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="K24" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J24)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C25)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>PLAYER='P'</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER2</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J25)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D26" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C26)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
         <v>PREVIOUS_LEVEL='l'</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>MONSTER3</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="2"/>
-        <v>MONSTER3</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K25" s="19" t="b">
-        <f t="shared" si="4"/>
+      <c r="K26" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J26)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D27" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C27)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
         <v>RED_POTION='R'</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>NEXT_LEVEL</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="2"/>
-        <v>NEXT_LEVEL</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
         <v>L</v>
       </c>
-      <c r="K26" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE='u'</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>NORTH</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
-      </c>
       <c r="K27" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J27)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C28)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE1='R1'</v>
+        <f t="shared" si="0"/>
+        <v>RUNE='u'</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>NORTH</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>PLAYER</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="K28" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE2='R2'</v>
+        <f t="shared" si="0"/>
+        <v>RUNE1='R1'</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>PLAYER</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="2"/>
-        <v>PREVIOUS_LEVEL</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>l</v>
+        <v>P</v>
       </c>
       <c r="K29" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE3='R3'</v>
+        <f t="shared" si="0"/>
+        <v>RUNE2='R2'</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>PREVIOUS_LEVEL</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="2"/>
-        <v>RED_POTION</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+        <v>l</v>
       </c>
       <c r="K30" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="19" t="b">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>RUNE4='R4'</v>
+        <f t="shared" si="0"/>
+        <v>RUNE3='R3'</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>RED_POTION</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>u</v>
+        <v>R</v>
       </c>
       <c r="K31" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>RUNE4='R4'</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>u</v>
+      </c>
+      <c r="K32" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="19" t="b">
-        <f t="shared" si="0"/>
+      <c r="D33" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="1"/>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
         <v>RUNE5='R5'</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H33" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE1</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE1</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
         <v>R1</v>
       </c>
-      <c r="K32" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>SAFETY='8'</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>RUNE2</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>R2</v>
-      </c>
       <c r="K33" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="D34" s="19" t="b">
-        <f t="shared" ref="D34:D65" si="5">SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
+        <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E66" si="6">B34&amp;"='"&amp;C34&amp;"'"</f>
-        <v>SECRET_TREASURE='J'</v>
+        <f t="shared" si="0"/>
+        <v>SAFETY='8'</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE2</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE3</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>R3</v>
+        <v>R2</v>
       </c>
       <c r="K34" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D35" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="6"/>
-        <v>SECRET_WALL=';'</v>
+        <f t="shared" ref="E35:E67" si="4">B35&amp;"='"&amp;C35&amp;"'"</f>
+        <v>SECRET_TREASURE='J'</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE3</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE4</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>R4</v>
+        <v>R3</v>
       </c>
       <c r="K35" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="4"/>
+        <v>SECRET_WALL=';'</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE4</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>R4</v>
+      </c>
+      <c r="K36" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B37" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="19" t="b">
-        <f t="shared" si="5"/>
+      <c r="D37" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="6"/>
+      <c r="E37" t="str">
+        <f t="shared" si="4"/>
         <v>SHIELD='O'</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H37" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>RUNE5</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="2"/>
-        <v>RUNE5</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="3"/>
         <v>R5</v>
       </c>
-      <c r="K36" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="6"/>
-        <v>SHOP='s'</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>SAFETY</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
       <c r="K37" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>SHOP='s'</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>SAFETY</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K38" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="19" t="b">
-        <f t="shared" si="5"/>
+      <c r="D39" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="6"/>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
         <v>SHOP_KEEPER='SHOP'</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H39" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>SECRET_TREASURE</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="2"/>
-        <v>SECRET_TREASURE</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="3"/>
         <v>J</v>
       </c>
-      <c r="K38" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="6"/>
-        <v>SOUTH='S'</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="2"/>
-        <v>SECRET_WALL</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="3"/>
-        <v>;</v>
-      </c>
       <c r="K39" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16601,159 +16632,159 @@
         <v>221</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>SOUTH='S'</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>SECRET_WALL</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="K40" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="19" t="b">
-        <f t="shared" si="5"/>
+      <c r="D41" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="6"/>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
         <v>START_POSITION='='</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H41" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>SHIELD</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="2"/>
-        <v>SHIELD</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="3"/>
         <v>O</v>
       </c>
-      <c r="K40" s="19" t="b">
+      <c r="K41" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="4"/>
+        <v>SWITCH=','</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>SHOP</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="K42" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="19" t="b">
-        <f t="shared" si="5"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="6"/>
-        <v>SWITCH=','</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" t="str">
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>SWITCH_LIT='&lt;'</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>SHOP_KEEPER</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="2"/>
         <v>SHOP</v>
       </c>
-      <c r="J41" t="str">
-        <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="K41" s="19" t="b">
+      <c r="K43" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="6"/>
-        <v>SWITCH_LIT='&lt;'</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I42" t="str">
+        <v>SWITCH_TILE='_'</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>SOUTH</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="2"/>
-        <v>SHOP_KEEPER</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="3"/>
-        <v>SHOP</v>
-      </c>
-      <c r="K42" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="6"/>
-        <v>SWITCH_TILE='_'</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="2"/>
-        <v>SOUTH</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="K43" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="6"/>
-        <v>TILE1='`'</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="2"/>
-        <v>START_POSITON</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="3"/>
-        <v>=</v>
-      </c>
       <c r="K44" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16762,32 +16793,32 @@
         <v>223</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D45" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="6"/>
-        <v>TILE2='¬'</v>
+        <f t="shared" si="4"/>
+        <v>TILE1='`'</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>START_POSITON</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="2"/>
-        <v>SWITCH</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="3"/>
-        <v>,</v>
+        <v>=</v>
       </c>
       <c r="K45" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16796,32 +16827,32 @@
         <v>223</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="D46" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="6"/>
-        <v>TILE3='.'</v>
+        <f t="shared" si="4"/>
+        <v>TILE2='¬'</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>SWITCH</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="2"/>
-        <v>SWITCH_LIT</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;</v>
+        <v>,</v>
       </c>
       <c r="K46" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16830,159 +16861,159 @@
         <v>223</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>TILE3='.'</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>SWITCH_LIT</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K47" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="19" t="b">
-        <f t="shared" si="5"/>
+      <c r="D48" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="6"/>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
         <v>TILE4='~'</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H48" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>SWITCH_TILE</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="2"/>
-        <v>SWITCH_TILE</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="3"/>
         <v>_</v>
       </c>
-      <c r="K47" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="6"/>
-        <v>TRAP1='^'</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="2"/>
-        <v>TRAP1</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="3"/>
-        <v>^</v>
-      </c>
       <c r="K48" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="6"/>
-        <v>TRAP2='&amp;'</v>
+        <f t="shared" si="4"/>
+        <v>TRAP1='^'</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAP1</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="2"/>
-        <v>TRAP2</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="3"/>
-        <v>&amp;</v>
+        <v>^</v>
       </c>
       <c r="K49" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>TRAP2='&amp;'</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAP2</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp;</v>
+      </c>
+      <c r="K50" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="19" t="b">
-        <f t="shared" si="5"/>
+      <c r="D51" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="6"/>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
         <v>TRAP3='['</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H51" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAP3</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="2"/>
-        <v>TRAP3</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="3"/>
         <v>[</v>
       </c>
-      <c r="K50" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="6"/>
-        <v>TREASURE='*'</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="2"/>
-        <v>TREASURE</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
       <c r="K51" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16991,32 +17022,32 @@
         <v>222</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D52" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="6"/>
-        <v>TREASURE_CHEST='j'</v>
+        <f t="shared" si="4"/>
+        <v>TREASURE='*'</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE_CHEST</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="3"/>
-        <v>j</v>
+        <v>*</v>
       </c>
       <c r="K52" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17025,32 +17056,32 @@
         <v>222</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D53" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="6"/>
-        <v>TREASURE10='x'</v>
+        <f t="shared" si="4"/>
+        <v>TREASURE_CHEST='j'</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE_CHEST</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE10</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
+        <v>j</v>
       </c>
       <c r="K53" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17059,165 +17090,165 @@
         <v>222</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>TREASURE10='x'</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE10</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="K54" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="19" t="b">
-        <f t="shared" si="5"/>
+      <c r="D55" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="6"/>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
         <v>TREASURE25='X'</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H55" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>TREASURE25</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="2"/>
-        <v>TREASURE25</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="K54" s="19" t="b">
+      <c r="K55" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="6"/>
         <v>TREE='T'</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H56" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>TREE</v>
+      </c>
+      <c r="J56" t="str">
         <f t="shared" si="2"/>
-        <v>TREE</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="K55" s="19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="19" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="6"/>
-        <v>TROPHY='G'</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="2"/>
-        <v>TROPHY</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="3"/>
-        <v>G</v>
-      </c>
       <c r="K56" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D57" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="6"/>
-        <v>UP='+'</v>
+        <f t="shared" si="4"/>
+        <v>TROPHY='G'</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>TROPHY</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="2"/>
-        <v>UP</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="3"/>
-        <v>+</v>
+        <v>G</v>
       </c>
       <c r="K57" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL=':'</v>
+        <f t="shared" si="4"/>
+        <v>UP='+'</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>UP</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="2"/>
-        <v>WALL</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="3"/>
-        <v>:</v>
+        <v>+</v>
       </c>
       <c r="K58" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17226,32 +17257,32 @@
         <v>225</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D59" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL_BL='('</v>
+        <f t="shared" si="4"/>
+        <v>WALL=':'</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>WALL</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_BL</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="3"/>
-        <v>(</v>
+        <v>:</v>
       </c>
       <c r="K59" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17260,32 +17291,32 @@
         <v>225</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL_BR=')'</v>
+        <f t="shared" si="4"/>
+        <v>WALL_BL='('</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>WALL_BL</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_BR</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="3"/>
-        <v>)</v>
+        <v>(</v>
       </c>
       <c r="K60" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17294,32 +17325,32 @@
         <v>225</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL_TL='/'</v>
+        <f t="shared" si="4"/>
+        <v>WALL_BR=')'</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>WALL_BR</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_TL</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="3"/>
-        <v>/</v>
+        <v>)</v>
       </c>
       <c r="K61" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17328,32 +17359,32 @@
         <v>225</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D62" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL_TR='\\'</v>
+        <f t="shared" si="4"/>
+        <v>WALL_TL='/'</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>WALL_TL</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="2"/>
-        <v>WALL_TR</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="3"/>
-        <v>\\</v>
+        <v>/</v>
       </c>
       <c r="K62" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17362,32 +17393,32 @@
         <v>225</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D63" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL2='w'</v>
+        <f t="shared" si="4"/>
+        <v>WALL_TR='\\'</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>WALL_TR</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="2"/>
-        <v>WALL2</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="3"/>
-        <v>w</v>
+        <v>\\</v>
       </c>
       <c r="K63" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17396,108 +17427,152 @@
         <v>225</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="D64" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="6"/>
-        <v>WALL3='e'</v>
+        <f t="shared" si="4"/>
+        <v>WALL2='w'</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>WALL2</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="2"/>
-        <v>WEAPON</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="3"/>
-        <v>|</v>
+        <v>w</v>
       </c>
       <c r="K64" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="D65" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="6"/>
-        <v>WEAPON='|'</v>
+        <f t="shared" si="4"/>
+        <v>WALL3='e'</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>WEAPON</v>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="2"/>
-        <v>WEST</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
+        <v>|</v>
       </c>
       <c r="K65" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="4"/>
+        <v>WEAPON='|'</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>WEST</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="K66" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B67" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="19" t="b">
-        <f t="shared" ref="D66" si="7">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+      <c r="D67" s="19" t="b">
+        <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
         <v>0</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="6"/>
+      <c r="E67" t="str">
+        <f t="shared" si="4"/>
         <v>WEST='W'</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C64"/>
+  <autoFilter ref="C1:C65"/>
   <sortState ref="A2:E66">
     <sortCondition ref="B2:B66"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="D1:D9 D68:D1048576 D11:D66">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="K2:K9 K11:K66">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19225,12 +19300,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20958,12 +21033,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22691,12 +22766,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24413,12 +24488,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26146,12 +26221,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27879,12 +27954,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29612,12 +29687,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31345,12 +31420,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 3.xlsx
+++ b/game_template/model/data/floor builder Level 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1973,21 +1973,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -4946,12 +4932,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6679,12 +6665,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6697,7 +6683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -6882,7 +6868,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>133</v>
@@ -6894,7 +6880,7 @@
         <v>133</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>6</v>
@@ -6927,11 +6913,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>:      :```:       :</v>
+        <v>:      (```)       :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>':      :```:       :',</v>
+        <v>':      (```)       :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -6945,7 +6931,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>6</v>
@@ -6981,10 +6967,10 @@
         <v>6</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>6</v>
@@ -7002,11 +6988,11 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:      88888       :</v>
+        <v>:  !   88888   !!  :</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':      88888       :',</v>
+        <v>':  !   88888   !!  :',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -7020,10 +7006,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>6</v>
@@ -7056,7 +7042,7 @@
         <v>6</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>6</v>
@@ -7077,11 +7063,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:        B         :</v>
+        <v>:  !!    B     !   :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':        B         :',</v>
+        <v>':  !!    B     !   :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -7254,7 +7240,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>6</v>
@@ -7272,7 +7258,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>2</v>
@@ -7302,11 +7288,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:::::::  B  ::::::::</v>
+        <v>::::::)  B  (:::::::</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':::::::  B  ::::::::',</v>
+        <v>'::::::)  B  (:::::::',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -7560,13 +7546,13 @@
         <v>12</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>11</v>
@@ -7602,11 +7588,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:      /   \       :</v>
+        <v>:      /:::\       :</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':      /   \       :',</v>
+        <v>':      /:::\       :',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -7632,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>133</v>
@@ -7644,7 +7630,7 @@
         <v>133</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>2</v>
@@ -7677,11 +7663,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:  :::::```:::::   :</v>
+        <v>:  ::::)```(::::   :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':  :::::```:::::   :',</v>
+        <v>':  ::::)```(::::   :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -7848,7 +7834,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>6</v>
@@ -7878,10 +7864,10 @@
         <v>6</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>6</v>
@@ -7902,11 +7888,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:       `M`        :</v>
+        <v>:   !   `M`   !!   :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':       `M`        :',</v>
+        <v>':   !   `M`   !!   :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -7920,10 +7906,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>6</v>
@@ -7956,10 +7942,10 @@
         <v>6</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="R17" s="14" t="s">
         <v>6</v>
@@ -7977,11 +7963,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>:      /:::\       :</v>
+        <v>:  !!  /:::\   !!  :</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>':      /:::\       :',</v>
+        <v>':  !!  /:::\   !!  :',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -8412,12 +8398,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10145,12 +10131,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11878,12 +11864,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13611,12 +13597,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15344,12 +15330,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15362,7 +15348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -15409,11 +15395,11 @@
         <v>37</v>
       </c>
       <c r="D2" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
+        <f t="shared" ref="D2:D33" si="0">SUMPRODUCT(--(EXACT(C:C,C2)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E34" si="0">B2&amp;"='"&amp;C2&amp;"'"</f>
+        <f t="shared" ref="E2:E34" si="1">B2&amp;"='"&amp;C2&amp;"'"</f>
         <v>BANG='$'</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -15428,7 +15414,7 @@
         <v>$</v>
       </c>
       <c r="K2" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
+        <f t="shared" ref="K2:K33" si="2">SUMPRODUCT(--(EXACT(J:J,J2)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15443,26 +15429,26 @@
         <v>38</v>
       </c>
       <c r="D3" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C3)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB='q'</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>132</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="1">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
+        <f t="shared" ref="I3:I66" si="3">TRIM(MID($H3,1,FIND("=",$H3)-1))</f>
         <v>TILE1</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="2">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
+        <f t="shared" ref="J3:J66" si="4">SUBSTITUTE(TRIM(MID($H3,FIND("=",$H3)+1,200)),"'","")</f>
         <v>`</v>
       </c>
       <c r="K3" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J3)))&gt;1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -15477,26 +15463,26 @@
         <v>39</v>
       </c>
       <c r="D4" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C4)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOMB_LIT='Q'</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>131</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE2</v>
       </c>
       <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>¬</v>
+      </c>
+      <c r="K4" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>¬</v>
-      </c>
-      <c r="K4" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J4)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15508,26 +15494,26 @@
         <v>40</v>
       </c>
       <c r="D5" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C5)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BOSS_DOOR='d'</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE3</v>
       </c>
       <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="K5" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>.</v>
-      </c>
-      <c r="K5" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J5)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15539,26 +15525,26 @@
         <v>9</v>
       </c>
       <c r="D6" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C6)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BRAZIER='B'</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>130</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TILE4</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>~</v>
+      </c>
+      <c r="K6" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>~</v>
-      </c>
-      <c r="K6" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J6)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15570,26 +15556,26 @@
         <v>17</v>
       </c>
       <c r="D7" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C7)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION1='z'</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>70</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOMB</v>
       </c>
       <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>q</v>
+      </c>
+      <c r="K7" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>q</v>
-      </c>
-      <c r="K7" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J7)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15601,26 +15587,26 @@
         <v>41</v>
       </c>
       <c r="D8" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C8)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DECORATION2='Z'</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOMB_LIT</v>
       </c>
       <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>Q</v>
+      </c>
+      <c r="K8" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>Q</v>
-      </c>
-      <c r="K8" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J8)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15632,26 +15618,26 @@
         <v>7</v>
       </c>
       <c r="D9" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C9)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOOR='D'</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>72</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="K9" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>d</v>
-      </c>
-      <c r="K9" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J9)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15663,26 +15649,26 @@
         <v>231</v>
       </c>
       <c r="D10" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C10)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10" si="3">B10&amp;"='"&amp;C10&amp;"'"</f>
+        <f t="shared" ref="E10" si="5">B10&amp;"='"&amp;C10&amp;"'"</f>
         <v>DOOR_OPEN='o'</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>72</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BOSS_DOOR</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="K10" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>d</v>
-      </c>
-      <c r="K10" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J10)))&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -15694,26 +15680,26 @@
         <v>42</v>
       </c>
       <c r="D11" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C11)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT1='!'</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>BRAZIER</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="K11" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="K11" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J11)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15725,26 +15711,26 @@
         <v>43</v>
       </c>
       <c r="D12" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C12)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOT2='£'</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DECORATION1</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="K12" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>z</v>
-      </c>
-      <c r="K12" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J12)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15759,26 +15745,26 @@
         <v>16</v>
       </c>
       <c r="D13" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C13)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DOWN='-'</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>75</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DECORATION2</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>Z</v>
+      </c>
+      <c r="K13" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>Z</v>
-      </c>
-      <c r="K13" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J13)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15793,26 +15779,26 @@
         <v>23</v>
       </c>
       <c r="D14" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C14)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EAST='E'</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>76</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOOR</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="K14" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>D</v>
-      </c>
-      <c r="K14" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J14)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15824,26 +15810,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C15)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMPTY=' '</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>77</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOT1</v>
       </c>
       <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>!</v>
+      </c>
+      <c r="K15" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>!</v>
-      </c>
-      <c r="K15" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J15)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15855,26 +15841,26 @@
         <v>44</v>
       </c>
       <c r="D16" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C16)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EXIT_KEY='%'</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOT2</v>
       </c>
       <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>£</v>
+      </c>
+      <c r="K16" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>£</v>
-      </c>
-      <c r="K16" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J16)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15886,26 +15872,26 @@
         <v>45</v>
       </c>
       <c r="D17" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C17)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HEART='HP'</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>79</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DOWN</v>
       </c>
       <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="K17" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="K17" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J17)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15920,26 +15906,26 @@
         <v>8</v>
       </c>
       <c r="D18" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C18)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KEY='?'</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>80</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EAST</v>
       </c>
       <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="K18" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>E</v>
-      </c>
-      <c r="K18" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J18)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15954,26 +15940,26 @@
         <v>46</v>
       </c>
       <c r="D19" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C19)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MAP='M'</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>81</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EMPTY</v>
       </c>
       <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" s="19" t="b">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K19" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J19)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -15988,26 +15974,26 @@
         <v>176</v>
       </c>
       <c r="D20" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C20)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER1='1'</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>EXIT_KEY</v>
       </c>
       <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+      <c r="K20" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>%</v>
-      </c>
-      <c r="K20" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J20)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16022,26 +16008,26 @@
         <v>178</v>
       </c>
       <c r="D21" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C21)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER2='2'</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HEART</v>
       </c>
       <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>HP</v>
+      </c>
+      <c r="K21" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>HP</v>
-      </c>
-      <c r="K21" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J21)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16056,26 +16042,26 @@
         <v>180</v>
       </c>
       <c r="D22" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C22)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MONSTER3='3'</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>84</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KEY</v>
       </c>
       <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>?</v>
+      </c>
+      <c r="K22" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>?</v>
-      </c>
-      <c r="K22" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J22)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16090,26 +16076,26 @@
         <v>24</v>
       </c>
       <c r="D23" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C23)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NEXT_LEVEL='L'</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>85</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MAP</v>
       </c>
       <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
+      </c>
+      <c r="K23" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="K23" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J23)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16124,26 +16110,26 @@
         <v>20</v>
       </c>
       <c r="D24" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C24)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NORTH='N'</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>86</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER1</v>
       </c>
       <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J24)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16155,26 +16141,26 @@
         <v>47</v>
       </c>
       <c r="D25" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C25)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PLAYER='P'</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER2</v>
       </c>
       <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K25" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J25)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16186,26 +16172,26 @@
         <v>29</v>
       </c>
       <c r="D26" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C26)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PREVIOUS_LEVEL='l'</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>88</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MONSTER3</v>
       </c>
       <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K26" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K26" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J26)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16220,26 +16206,26 @@
         <v>48</v>
       </c>
       <c r="D27" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C27)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RED_POTION='R'</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>89</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NEXT_LEVEL</v>
       </c>
       <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+      <c r="K27" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
-      <c r="K27" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J27)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16251,26 +16237,26 @@
         <v>49</v>
       </c>
       <c r="D28" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C28)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE='u'</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>90</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NORTH</v>
       </c>
       <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="K28" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>N</v>
-      </c>
-      <c r="K28" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J28)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16282,26 +16268,26 @@
         <v>50</v>
       </c>
       <c r="D29" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C29)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE1='R1'</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>91</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PLAYER</v>
       </c>
       <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>P</v>
+      </c>
+      <c r="K29" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="K29" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J29)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16313,26 +16299,26 @@
         <v>51</v>
       </c>
       <c r="D30" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C30)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE2='R2'</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>92</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>PREVIOUS_LEVEL</v>
       </c>
       <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>l</v>
+      </c>
+      <c r="K30" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>l</v>
-      </c>
-      <c r="K30" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J30)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16344,26 +16330,26 @@
         <v>52</v>
       </c>
       <c r="D31" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C31)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE3='R3'</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RED_POTION</v>
       </c>
       <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>R</v>
+      </c>
+      <c r="K31" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>R</v>
-      </c>
-      <c r="K31" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J31)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16375,26 +16361,26 @@
         <v>53</v>
       </c>
       <c r="D32" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C32)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE4='R4'</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>94</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE</v>
       </c>
       <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>u</v>
+      </c>
+      <c r="K32" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>u</v>
-      </c>
-      <c r="K32" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J32)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16406,26 +16392,26 @@
         <v>54</v>
       </c>
       <c r="D33" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C33)))&gt;1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RUNE5='R5'</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>95</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE1</v>
       </c>
       <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>R1</v>
+      </c>
+      <c r="K33" s="19" t="b">
         <f t="shared" si="2"/>
-        <v>R1</v>
-      </c>
-      <c r="K33" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J33)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16440,26 +16426,26 @@
         <v>193</v>
       </c>
       <c r="D34" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
+        <f t="shared" ref="D34:D65" si="6">SUMPRODUCT(--(EXACT(C:C,C34)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SAFETY='8'</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>96</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE2</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R2</v>
       </c>
       <c r="K34" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
+        <f t="shared" ref="K34:K65" si="7">SUMPRODUCT(--(EXACT(J:J,J34)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -16474,26 +16460,26 @@
         <v>55</v>
       </c>
       <c r="D35" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C35)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E67" si="4">B35&amp;"='"&amp;C35&amp;"'"</f>
+        <f t="shared" ref="E35:E67" si="8">B35&amp;"='"&amp;C35&amp;"'"</f>
         <v>SECRET_TREASURE='J'</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>97</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE3</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R3</v>
       </c>
       <c r="K35" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J35)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16508,26 +16494,26 @@
         <v>15</v>
       </c>
       <c r="D36" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C36)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SECRET_WALL=';'</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>98</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE4</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R4</v>
       </c>
       <c r="K36" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J36)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16542,26 +16528,26 @@
         <v>28</v>
       </c>
       <c r="D37" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C37)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SHIELD='O'</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>99</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RUNE5</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>R5</v>
       </c>
       <c r="K37" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J37)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16573,26 +16559,26 @@
         <v>21</v>
       </c>
       <c r="D38" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C38)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SHOP='s'</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>100</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SAFETY</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K38" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J38)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16604,26 +16590,26 @@
         <v>56</v>
       </c>
       <c r="D39" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C39)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SHOP_KEEPER='SHOP'</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>101</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SECRET_TREASURE</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>J</v>
       </c>
       <c r="K39" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J39)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16638,26 +16624,26 @@
         <v>18</v>
       </c>
       <c r="D40" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C40)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SOUTH='S'</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>102</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SECRET_WALL</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>;</v>
       </c>
       <c r="K40" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J40)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16672,26 +16658,26 @@
         <v>19</v>
       </c>
       <c r="D41" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C41)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>START_POSITION='='</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>103</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHIELD</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>O</v>
       </c>
       <c r="K41" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J41)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16703,26 +16689,26 @@
         <v>57</v>
       </c>
       <c r="D42" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C42)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SWITCH=','</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>104</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHOP</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="K42" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J42)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16734,26 +16720,26 @@
         <v>58</v>
       </c>
       <c r="D43" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C43)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SWITCH_LIT='&lt;'</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>105</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SHOP_KEEPER</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SHOP</v>
       </c>
       <c r="K43" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J43)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16765,26 +16751,26 @@
         <v>59</v>
       </c>
       <c r="D44" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C44)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SWITCH_TILE='_'</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>106</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SOUTH</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="K44" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J44)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16799,26 +16785,26 @@
         <v>133</v>
       </c>
       <c r="D45" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C45)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE1='`'</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>107</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>START_POSITON</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>=</v>
       </c>
       <c r="K45" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J45)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16833,26 +16819,26 @@
         <v>153</v>
       </c>
       <c r="D46" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C46)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE2='¬'</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>108</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="K46" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J46)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16867,26 +16853,26 @@
         <v>27</v>
       </c>
       <c r="D47" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C47)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE3='.'</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>109</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH_LIT</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;</v>
       </c>
       <c r="K47" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J47)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16901,26 +16887,26 @@
         <v>26</v>
       </c>
       <c r="D48" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C48)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TILE4='~'</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>110</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SWITCH_TILE</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>_</v>
       </c>
       <c r="K48" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J48)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16932,26 +16918,26 @@
         <v>60</v>
       </c>
       <c r="D49" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C49)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TRAP1='^'</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>111</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP1</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>^</v>
       </c>
       <c r="K49" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J49)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16963,26 +16949,26 @@
         <v>61</v>
       </c>
       <c r="D50" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C50)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TRAP2='&amp;'</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>112</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP2</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&amp;</v>
       </c>
       <c r="K50" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J50)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16994,26 +16980,26 @@
         <v>35</v>
       </c>
       <c r="D51" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C51)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TRAP3='['</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>113</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TRAP3</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[</v>
       </c>
       <c r="K51" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J51)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17028,26 +17014,26 @@
         <v>62</v>
       </c>
       <c r="D52" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C52)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE='*'</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>114</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>*</v>
       </c>
       <c r="K52" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J52)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17062,26 +17048,26 @@
         <v>25</v>
       </c>
       <c r="D53" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C53)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE_CHEST='j'</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>115</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE_CHEST</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>j</v>
       </c>
       <c r="K53" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J53)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17096,26 +17082,26 @@
         <v>63</v>
       </c>
       <c r="D54" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C54)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE10='x'</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>116</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE10</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="K54" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J54)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17130,26 +17116,26 @@
         <v>64</v>
       </c>
       <c r="D55" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C55)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREASURE25='X'</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>117</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREASURE25</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="K55" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J55)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17161,26 +17147,26 @@
         <v>10</v>
       </c>
       <c r="D56" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C56)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TREE='T'</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>118</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TREE</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="K56" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J56)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17195,26 +17181,26 @@
         <v>65</v>
       </c>
       <c r="D57" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C57)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TROPHY='G'</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>119</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>TROPHY</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>G</v>
       </c>
       <c r="K57" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J57)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17229,26 +17215,26 @@
         <v>5</v>
       </c>
       <c r="D58" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C58)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>UP='+'</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>120</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>UP</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>+</v>
       </c>
       <c r="K58" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J58)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17263,26 +17249,26 @@
         <v>2</v>
       </c>
       <c r="D59" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C59)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL=':'</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>121</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>:</v>
       </c>
       <c r="K59" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J59)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17297,26 +17283,26 @@
         <v>14</v>
       </c>
       <c r="D60" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C60)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL_BL='('</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>122</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_BL</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>(</v>
       </c>
       <c r="K60" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J60)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17331,26 +17317,26 @@
         <v>13</v>
       </c>
       <c r="D61" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C61)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL_BR=')'</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>123</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_BR</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>)</v>
       </c>
       <c r="K61" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J61)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17365,26 +17351,26 @@
         <v>12</v>
       </c>
       <c r="D62" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C62)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL_TL='/'</v>
       </c>
       <c r="H62" s="26" t="s">
         <v>124</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_TL</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="K62" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J62)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17399,26 +17385,26 @@
         <v>66</v>
       </c>
       <c r="D63" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C63)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL_TR='\\'</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>125</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL_TR</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>\\</v>
       </c>
       <c r="K63" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J63)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17433,26 +17419,26 @@
         <v>31</v>
       </c>
       <c r="D64" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C64)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL2='w'</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>126</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WALL2</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>w</v>
       </c>
       <c r="K64" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J64)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17467,26 +17453,26 @@
         <v>228</v>
       </c>
       <c r="D65" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C65)))&gt;1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WALL3='e'</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>127</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WEAPON</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>|</v>
       </c>
       <c r="K65" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J65)))&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17501,26 +17487,26 @@
         <v>30</v>
       </c>
       <c r="D66" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <f t="shared" ref="D66:D97" si="9">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WEAPON='|'</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>128</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WEST</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="K66" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <f t="shared" ref="K66:K97" si="10">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -17535,11 +17521,11 @@
         <v>22</v>
       </c>
       <c r="D67" s="19" t="b">
-        <f>SUMPRODUCT(--(EXACT(C:C,C67)))&gt;1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>WEST='W'</v>
       </c>
     </row>
@@ -17552,27 +17538,27 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D9 D68:D1048576 D11:D66">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9 K11:K66">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19300,12 +19286,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21033,12 +21019,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22766,12 +22752,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24488,12 +24474,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26221,12 +26207,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27954,12 +27940,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29687,12 +29673,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31420,12 +31406,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 3.xlsx
+++ b/game_template/model/data/floor builder Level 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -6683,7 +6683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -17487,7 +17487,7 @@
         <v>30</v>
       </c>
       <c r="D66" s="19" t="b">
-        <f t="shared" ref="D66:D97" si="9">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
+        <f t="shared" ref="D66:D67" si="9">SUMPRODUCT(--(EXACT(C:C,C66)))&gt;1</f>
         <v>0</v>
       </c>
       <c r="E66" t="str">
@@ -17506,7 +17506,7 @@
         <v>W</v>
       </c>
       <c r="K66" s="19" t="b">
-        <f t="shared" ref="K66:K97" si="10">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
+        <f t="shared" ref="K66" si="10">SUMPRODUCT(--(EXACT(J:J,J66)))&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -21037,8 +21037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22455,7 +22455,7 @@
         <v>31</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="T19" s="14" t="s">
         <v>31</v>
@@ -22467,11 +22467,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>ww      :D:    www w</v>
+        <v>ww      :D:    wwwHw</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'ww      :D:    www w',</v>
+        <v>'ww      :D:    wwwHw',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">

--- a/game_template/model/data/floor builder Level 3.xlsx
+++ b/game_template/model/data/floor builder Level 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1778,7 +1778,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1800,6 +1800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,7 +1917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1969,11 +1975,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2006,6 +2043,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4932,12 +4997,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6665,12 +6730,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8398,12 +8463,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10131,12 +10196,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11864,12 +11929,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13597,12 +13662,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13615,8 +13680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U1:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13688,11 +13753,15 @@
       <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="4"/>
+      <c r="U1" s="27"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="5"/>
+      <c r="Z1" s="27">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
         <v>::::::ww:N:ww:::::::</v>
@@ -13763,13 +13832,17 @@
       <c r="T2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="8"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
+      <c r="Z2" s="27">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <f>CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
         <v>:)  (:::) (:::)   (:</v>
       </c>
       <c r="AB2" t="str">
@@ -13838,13 +13911,17 @@
       <c r="T3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="27"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9"/>
+      <c r="Z3" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="AA3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3)</f>
         <v>:                  :</v>
       </c>
       <c r="AB3" t="str">
@@ -13913,13 +13990,17 @@
       <c r="T4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9"/>
+      <c r="Z4" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="AA4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,B4,C4,D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4)</f>
         <v>:                  :</v>
       </c>
       <c r="AB4" t="str">
@@ -13988,13 +14069,17 @@
       <c r="T5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="27"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="9"/>
+      <c r="Z5" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AA5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5,Q5,R5,S5,T5,U5,V5,W5,X5,Y5)</f>
         <v>:                  :</v>
       </c>
       <c r="AB5" t="str">
@@ -14063,13 +14148,17 @@
       <c r="T6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="27"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
+      <c r="Z6" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="AA6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A6,B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6,Q6,R6,S6,T6,U6,V6,W6,X6,Y6)</f>
         <v>:    /:\   /::\    :</v>
       </c>
       <c r="AB6" t="str">
@@ -14138,13 +14227,17 @@
       <c r="T7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="27"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="9"/>
+      <c r="Z7" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="AA7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7,Q7,R7,S7,T7,U7,V7,W7,X7,Y7)</f>
         <v>:  /:: :   :  ::\  :</v>
       </c>
       <c r="AB7" t="str">
@@ -14213,13 +14306,17 @@
       <c r="T8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="9"/>
+      <c r="Z8" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AA8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A8,B8,C8,D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8,Q8,R8,S8,T8,U8,V8,W8,X8,Y8)</f>
         <v>:  :   )```(    :  :</v>
       </c>
       <c r="AB8" t="str">
@@ -14288,13 +14385,17 @@
       <c r="T9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9"/>
+      <c r="Z9" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AA9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A9,B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,S9,T9,U9,V9,W9,X9,Y9)</f>
         <v>:  :    ```     :  :</v>
       </c>
       <c r="AB9" t="str">
@@ -14363,13 +14464,17 @@
       <c r="T10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="27"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
+      <c r="Z10" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AA10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10,Q10,R10,S10,T10,U10,V10,W10,X10,Y10)</f>
         <v>:  :    ```     :  :</v>
       </c>
       <c r="AB10" t="str">
@@ -14438,13 +14543,17 @@
       <c r="T11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="8"/>
+      <c r="U11" s="27"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
+      <c r="Z11" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="AA11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A11,B11,C11,D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11,Q11,R11,S11,T11,U11,V11,W11,X11,Y11)</f>
         <v>: /:    ```     :\j:</v>
       </c>
       <c r="AB11" t="str">
@@ -14513,13 +14622,17 @@
       <c r="T12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9"/>
+      <c r="Z12" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AA12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A12,B12,C12,D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,Q12,R12,S12,T12,U12,V12,W12,X12,Y12)</f>
         <v>:::::   ```    :::::</v>
       </c>
       <c r="AB12" t="str">
@@ -14588,13 +14701,17 @@
       <c r="T13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="8"/>
+      <c r="U13" s="27"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="9"/>
+      <c r="Z13" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="AA13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A13,B13,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13,X13,Y13)</f>
         <v>:www::  ```   ::www:</v>
       </c>
       <c r="AB13" t="str">
@@ -14663,13 +14780,17 @@
       <c r="T14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="8"/>
+      <c r="U14" s="27"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="9"/>
+      <c r="Z14" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AA14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A14,B14,C14,D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14,Q14,R14,S14,T14,U14,V14,W14,X14,Y14)</f>
         <v>:wwww:: ```  ::wwww:</v>
       </c>
       <c r="AB14" t="str">
@@ -14738,13 +14859,17 @@
       <c r="T15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="8"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9"/>
+      <c r="Z15" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AA15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A15,B15,C15,D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15,Q15,R15,S15,T15,U15,V15,W15,X15,Y15)</f>
         <v>:wwwww: ```  :wwwww:</v>
       </c>
       <c r="AB15" t="str">
@@ -14813,13 +14938,17 @@
       <c r="T16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="8"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="9"/>
+      <c r="Z16" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AA16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A16,B16,C16,D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16,Q16,R16,S16,T16,U16,V16,W16,X16,Y16)</f>
         <v>:wwwww: ```  :wwwww:</v>
       </c>
       <c r="AB16" t="str">
@@ -14888,13 +15017,17 @@
       <c r="T17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="8"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="9"/>
+      <c r="Z17" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AA17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A17,B17,C17,D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17,Q17,R17,S17,T17,U17,V17,W17,X17,Y17)</f>
         <v>:wwwww: ```  :wwww::</v>
       </c>
       <c r="AB17" t="str">
@@ -14963,13 +15096,17 @@
       <c r="T18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9"/>
+      <c r="Z18" s="27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AA18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A18,B18,C18,D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18,Q18,R18,S18,T18,U18,V18,W18,X18,Y18)</f>
         <v>:wwww:) :`:  (:ww:::</v>
       </c>
       <c r="AB18" t="str">
@@ -15038,13 +15175,17 @@
       <c r="T19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="8"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="9"/>
+      <c r="Z19" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AA19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A19,B19,C19,D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,Q19,R19,S19,T19,U19,V19,W19,X19,Y19)</f>
         <v>:www:)  :L:   (ww:::</v>
       </c>
       <c r="AB19" t="str">
@@ -15113,13 +15254,17 @@
       <c r="T20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="9"/>
+      <c r="Z20" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AA20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A20,B20,C20,D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20,Q20,R20,S20,T20,U20,V20,W20,X20,Y20)</f>
         <v>::::::::::::::::::::</v>
       </c>
       <c r="AB20" t="str">
@@ -15128,38 +15273,98 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="A21" s="27">
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="27">
+        <f t="shared" ref="B21:T21" si="2">COLUMN()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="27">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M21" s="27">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N21" s="27">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O21" s="27">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P21" s="27">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Q21" s="27">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R21" s="27">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="S21" s="27">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="T21" s="27">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="AA21:AA25" si="3">CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21,Y21)</f>
+        <v>012345678910111213141516171819</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="1"/>
-        <v>'',</v>
+        <v>'012345678910111213141516171819',</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -15189,7 +15394,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="9"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB22" t="str">
@@ -15224,7 +15429,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="9"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB23" t="str">
@@ -15259,7 +15464,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="9"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB24" t="str">
@@ -15294,7 +15499,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="13"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB25" t="str">
@@ -15329,13 +15534,43 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="6" priority="2">
+  <conditionalFormatting sqref="A1:T20 A22:Y25 U21:Y21 V1:Y20">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:T20 A22:Z25 U21:Z21 V1:Y20">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U20">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U20">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17538,27 +17773,27 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D9 D68:D1048576 D11:D66">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9 K11:K66">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19286,12 +19521,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21019,12 +21254,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21037,7 +21272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -22752,12 +22987,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24474,12 +24709,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26207,12 +26442,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27940,12 +28175,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29673,12 +29908,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31406,12 +31641,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
